--- a/excel/trick_202308.xlsx
+++ b/excel/trick_202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>08/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>08/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>08/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>08/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>08/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>08/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>08/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>08/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>08/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>08/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>08/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>08/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>08/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>08/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>08/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>08/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>08/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>08/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>08/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>08/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>08/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>08/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>08/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>08/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>08/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>08/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>08/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>08/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>08/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>08/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>08/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -650,7 +655,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -670,7 +675,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -745,7 +750,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -765,7 +770,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -775,24 +780,29 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>4260</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -947,24 +957,29 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1118,6 +1133,11 @@
         </is>
       </c>
       <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1126,17 +1146,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1290,6 +1310,11 @@
         </is>
       </c>
       <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1298,17 +1323,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1462,6 +1487,11 @@
         </is>
       </c>
       <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1470,17 +1500,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1634,6 +1664,11 @@
         </is>
       </c>
       <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1642,17 +1677,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>吳國彰</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Justin Wu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1806,6 +1841,11 @@
         </is>
       </c>
       <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1814,17 +1854,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1978,6 +2018,11 @@
         </is>
       </c>
       <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1986,17 +2031,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2111,7 +2156,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2141,7 +2186,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2152,23 +2197,28 @@
       <c r="AH10" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>812</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2322,6 +2372,11 @@
         </is>
       </c>
       <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2330,17 +2385,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2494,6 +2549,11 @@
         </is>
       </c>
       <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2502,17 +2562,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2666,6 +2726,11 @@
         </is>
       </c>
       <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2674,17 +2739,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2838,6 +2903,11 @@
         </is>
       </c>
       <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2846,17 +2916,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2976,7 +3046,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -3012,23 +3082,28 @@
       <c r="AH15" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>3570</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3182,6 +3257,11 @@
         </is>
       </c>
       <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3190,17 +3270,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3354,6 +3434,11 @@
         </is>
       </c>
       <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3362,17 +3447,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3526,6 +3611,11 @@
         </is>
       </c>
       <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3534,17 +3624,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3664,7 +3754,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3699,24 +3789,29 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3870,6 +3965,11 @@
         </is>
       </c>
       <c r="AH20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3878,17 +3978,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4042,6 +4142,11 @@
         </is>
       </c>
       <c r="AH21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4050,17 +4155,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4214,6 +4319,11 @@
         </is>
       </c>
       <c r="AH22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4222,17 +4332,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4386,6 +4496,11 @@
         </is>
       </c>
       <c r="AH23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4394,17 +4509,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4558,6 +4673,11 @@
         </is>
       </c>
       <c r="AH24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4566,17 +4686,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4686,12 +4806,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -4732,23 +4852,28 @@
       <c r="AH25" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>1720</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4902,6 +5027,11 @@
         </is>
       </c>
       <c r="AH26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4910,17 +5040,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5074,6 +5204,11 @@
         </is>
       </c>
       <c r="AH27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5082,17 +5217,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5142,7 +5277,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5192,34 +5327,34 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
           <t>1400</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC28" t="inlineStr">
         <is>
           <t>0</t>
@@ -5247,24 +5382,29 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>1720</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5418,6 +5558,11 @@
         </is>
       </c>
       <c r="AH29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5426,17 +5571,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5516,12 +5661,12 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -5541,12 +5686,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -5592,23 +5737,28 @@
       <c r="AH30" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>2695</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5663,7 +5813,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>436</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5764,23 +5914,28 @@
       <c r="AH31" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>436</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5934,6 +6089,11 @@
         </is>
       </c>
       <c r="AH32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5942,17 +6102,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>林威宇</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Will Lin</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6106,6 +6266,11 @@
         </is>
       </c>
       <c r="AH33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6114,17 +6279,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6244,7 +6409,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -6279,24 +6444,29 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6450,6 +6620,11 @@
         </is>
       </c>
       <c r="AH35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6458,17 +6633,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6622,6 +6797,11 @@
         </is>
       </c>
       <c r="AH36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6630,17 +6810,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>林彥廷</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tim Lin</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6794,6 +6974,11 @@
         </is>
       </c>
       <c r="AH37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6802,17 +6987,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6862,12 +7042,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>436</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -6892,12 +7072,12 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,080</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -6917,27 +7097,27 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,015</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,560</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>726</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,570</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,320</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6957,7 +7137,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,746</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -6970,5680 +7150,9 @@
           <t>0</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>陳楨紘</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Jane Chen</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>黃冠叡</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Ray Huang</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>吳韻秋</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Yunchiu Wu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>徐國財</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Richard Hsu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>劉嘉鈴</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Nicole Liu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>陳寶慧</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Bao Chen</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>王縈嫻</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Ariel Wang</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>吳東穎</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Richie Wu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>陳麗芳</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Aretha Chen</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>謝昔祥</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Adonis Hsieh</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>王素珍</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Carol Wang</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>劉勝雄</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Vincent Liu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>莊正忠</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Hugo Chuang</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>陳智倫</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Frank Chen</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>1340</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>2920</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>1340</t>
-        </is>
-      </c>
-      <c r="AF52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>陳璜琪</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Vincent Chen</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>劉家瑜</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Scott Liu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>2160</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>2160</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>林華宸</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Wayne Lin</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>張雅惠</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Sofeya Chang</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>李俊賢</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Kiven Lee</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>沈麗玉</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Lillian Shan</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>蔡明彬</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>2700</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>2700</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>曾珮郁</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Eunice Tseng</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>林育田</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Kevin Lin</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>黃榮昌</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Hothwang Huang</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>林子玲</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Missy Lin</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>董宇珊</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Joanne Tung</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>吳建霖</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ChienLin Wu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>2180</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH66" t="inlineStr">
-        <is>
-          <t>2180</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>徐儷珊</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Lisan Hsu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2700</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>2700</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="AF69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>陳緯綺</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Vicky Chen</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>2980</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH70" t="inlineStr">
-        <is>
-          <t>2980</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2,980</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2,700</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1,400</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>4,750</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>3,580</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>1,400</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>9,470</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>5,440</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>33,699</t>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>15,213</t>
         </is>
       </c>
     </row>

--- a/excel/trick_202308.xlsx
+++ b/excel/trick_202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI38"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4260</t>
+          <t>5600</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2160</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>1218</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>540</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>540</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>10090</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1780</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2380</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1190</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -4320,12 +4320,12 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6129</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1630</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>2970</t>
         </is>
       </c>
     </row>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
     </row>
@@ -5155,12 +5155,12 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>863</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3043</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>3120</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>903</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -5918,24 +5918,24 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>1919</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -6095,24 +6095,24 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -6272,24 +6272,24 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4100</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -6449,24 +6449,24 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -6626,29 +6626,24 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,980</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6658,12 +6653,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,700</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,400</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6678,7 +6673,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>903</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6688,17 +6683,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>436</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -6723,17 +6718,17 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,080</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -6748,27 +6743,27 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9,608</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,215</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6,706</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17,670</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,800</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -6783,12 +6778,12 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,846</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -6798,361 +6793,12 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,180</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>1,080</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>1,015</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>1,560</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>726</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>3,570</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>4,320</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>1,746</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>15,213</t>
+          <t>77,549</t>
         </is>
       </c>
     </row>
